--- a/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3A3EE-DC9B-429C-AA8C-B48D01B3B90D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405DC4C-E335-4D15-9AF6-B0D2E216134F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32700" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,18 +51,10 @@
     <t>znys</t>
   </si>
   <si>
-    <t>cause_id=9462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>劳动争议案由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data.zh_name[list_dict,DO=]["确认劳动关系纠纷","追索劳动报酬纠纷","经济补偿金纠纷","未签劳动合同赔偿纠纷"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/question</t>
   </si>
   <si>
@@ -77,16 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data.temp_choice_tags.colloquial[dict_list_dict,DO=]["请求支付逾期给付工资的赔偿金","请求支付违法解除劳动合同的经济赔偿金","请求支付未订立劳动合同赔偿金","请求支付经济补偿金","请求解除双方劳动关系","请求补缴社保"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuotoSituation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cause_id=&lt;case1,Input,cause_id&gt;
-subject_id=97ff232df4bb3f16e522ab33e0df2d55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,23 +137,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qid=73252bbc7824a97f2a891244707e81ea
-start=2016-1-1
-end=2018-8-12
+    <t>Unsigned_Contract_Handler</t>
+  </si>
+  <si>
+    <t>json_str=dumps{"type":0,"wttype":0,"plaintiff_name":"%plaintiff_name%","plaintiff_sex":"%plaintiff_sex%","plaintiff_ethnic":"%plaintiff_ethnic%","plaintiff_birth":"%plaintiff_birth%","plaintiff_ID_number":"%plaintiff_ID_number%","plaintiff_cellphone":"%plaintiff_cellphone%","plaintiff_address":"%plaintiff_address%","plaintiff_company_name":"","plaintiff_company_address":"","plaintiff_company_legal_representative":"","plaintiff_attorney_name":"","plaintiff_attorney_sex":"","plaintiff_attorney_company":"","plaintiff_attorney_address":"","plaintiff_lawyer_name":"","plaintiff_lawyer_office":"","plaintiff_lawyer_telephone_number":"","defendant_attorney_name":"","defendant_attorney_sex":"","defendant_attorney_ethnic":"","defendant_attorney_birth":"","defendant_attorney_ID_number":"","defendant_cellphone":"%defendant_cellphone%","defendant_attorney_address":"","defendant_lawyer_name":"","defendant_lawyer_office":"","defendant_lawyer_address":"","defendant_lawyer_telephone_number":"","defendant_name":"%defendant_name%","defendant_sex":"%defendant_sex%","defendant_ethnic":"%defendant_ethnic%","defendant_birth":"%defendant_birth%","defendant_ID_number":"%defendant_ID_number%","defendant_address":"%defendant_address%","defendant_company_name":"","defendant_company_address":"","defendant_company_legal_representative":"","facts_and_reason":"%facts_and_reason%","claims":"%claims%"}
+qid=%qid%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%plaintiff_info%[=]%plaintiff_name%，%plaintiff_sex%，%plaintiff_ethnic%，%plaintiff_cellphone%，%plaintiff_birth%，%plaintiff_ID_number%，%plaintiff_address%
+%defendant_info%[=]%defendant_name%，%defendant_sex%，%defendant_ethnic%，%defendant_cellphone%，%defendant_birth%，%defendant_ID_number%，%defendant_address%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawapply</t>
+  </si>
+  <si>
+    <t>lawopinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law_comment="根据相关法律的规定，申请人申请的政府信息应当是行政机关在履行职责过程中制作或者获取的，以一定形式记录、保存的信息。"
+action_comment="金融借款纠纷发生后，经协商不成时，可以不经人民调解委员会调解，直接向人民法院提起诉讼。经过人民调解委员会调解，达不成协议的，任何一方也有权向人民法院起诉。您可以根据我们“我要诉讼”中提供的建议搜集相关证据材料，生成起诉状到法院进行立案。"
+law=dumps[{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"},{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"}]
+cause=dumps["中华人民共和国合同法","男女一方要求离婚的","可由有关部门进行调解或直接向人民法院提出离婚诉"]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskassessment</t>
+  </si>
+  <si>
+    <t>legalFare=23
+mediateFare=45
+mediateTime=179
+trialTime=206
+诉讼=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalFare=23
+mediateFare=45
+mediateTime=179
+trialTime=206
+tiaojie=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printpic</t>
+  </si>
+  <si>
+    <t>诉讼流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调解流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=1
+materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=2
+materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indictment</t>
+  </si>
+  <si>
+    <t>yg=dumps{"name":"1","sex":"19", "family":"工农区","address":"南京","phone":"15538905670"}
+ygdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
+bg=dumps{ "name":"1", "sex":"19", "family":"工农区", "address":"南京","phone":"15538905670"}
+bgdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
+zz=主张1；主张2
+ssly=事实跟理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZNYS_SSS_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Law_Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadLawComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailLawComHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。
+to_mail=1261589***qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadIndictment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indictment=起诉状内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word=dumps{"apply_name":"周某","apply_sex":"男","apply_education":"研究生","apply_crowd":"律师","cause_action":"劳动争议纠纷","apply_race":"山西省","apply_card":"412822199511243073","apply_domicile_place":"南京","apply_address":"南京","apply_postal_code":"453500","apply_mobile":"15538905670","apply_workspace":"江宁区","agent_name":"徐远","agent_phone":"15538905670","agent_type":"法定代理人","description":"原告XX与被告原系夫妻关系，因感情破裂双方于XXXX年XX月XX日办理了离婚。离婚时，双方约定原告随XX生活，由被告每年承担抚养费XXXX元。然而，约定的数额已远远低于当前的生活水平，原告多次与被告协商要求其增加抚养费均被拒绝。","request_items":"劳动者请求支付违法解除劳动合同的经济赔偿金,请求被告承担诉讼费。费用：2000元人民币"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailIndictmentHandler</t>
+  </si>
+  <si>
+    <t>Indictment=起诉状内容
+to_mail=1261589***qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=14</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=9</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=3</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=1</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=50</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
+qId=342a184d07e511f15f22ab348bad1bbf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start=2015-4-7
+end=2017-6-5
 salary=8000
-time_of_award=2017-1-1
-location=江苏省-南京市-雨花台区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unsigned_Contract_Handler</t>
-  </si>
-  <si>
-    <t>data.money[=]double(95733.33)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qid=c8be546a00283c679b401f52a7999632
+cause=2017-6-5
+time_of_award=2017-6-5
+qid=d93f4cb05242bcb5a74657bfc27d2c49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid=b21ecf107f77402281f2c692757e5d94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid=a81779ee13ef47ce57fac8e9b3d86f64
 plaintiff_name=test1
 plaintiff_sex=男
 plaintiff_ethnic=汉族
@@ -192,218 +382,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json_str=dumps{"type":0,"wttype":0,"plaintiff_name":"%plaintiff_name%","plaintiff_sex":"%plaintiff_sex%","plaintiff_ethnic":"%plaintiff_ethnic%","plaintiff_birth":"%plaintiff_birth%","plaintiff_ID_number":"%plaintiff_ID_number%","plaintiff_cellphone":"%plaintiff_cellphone%","plaintiff_address":"%plaintiff_address%","plaintiff_company_name":"","plaintiff_company_address":"","plaintiff_company_legal_representative":"","plaintiff_attorney_name":"","plaintiff_attorney_sex":"","plaintiff_attorney_company":"","plaintiff_attorney_address":"","plaintiff_lawyer_name":"","plaintiff_lawyer_office":"","plaintiff_lawyer_telephone_number":"","defendant_attorney_name":"","defendant_attorney_sex":"","defendant_attorney_ethnic":"","defendant_attorney_birth":"","defendant_attorney_ID_number":"","defendant_cellphone":"%defendant_cellphone%","defendant_attorney_address":"","defendant_lawyer_name":"","defendant_lawyer_office":"","defendant_lawyer_address":"","defendant_lawyer_telephone_number":"","defendant_name":"%defendant_name%","defendant_sex":"%defendant_sex%","defendant_ethnic":"%defendant_ethnic%","defendant_birth":"%defendant_birth%","defendant_ID_number":"%defendant_ID_number%","defendant_address":"%defendant_address%","defendant_company_name":"","defendant_company_address":"","defendant_company_legal_representative":"","facts_and_reason":"%facts_and_reason%","claims":"%claims%"}
-qid=%qid%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%plaintiff_info%[=]%plaintiff_name%，%plaintiff_sex%，%plaintiff_ethnic%，%plaintiff_cellphone%，%plaintiff_birth%，%plaintiff_ID_number%，%plaintiff_address%
-%defendant_info%[=]%defendant_name%，%defendant_sex%，%defendant_ethnic%，%defendant_cellphone%，%defendant_birth%，%defendant_ID_number%，%defendant_address%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lawapply</t>
-  </si>
-  <si>
-    <t>lawopinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">law_comment="根据相关法律的规定，申请人申请的政府信息应当是行政机关在履行职责过程中制作或者获取的，以一定形式记录、保存的信息。"
-action_comment="金融借款纠纷发生后，经协商不成时，可以不经人民调解委员会调解，直接向人民法院提起诉讼。经过人民调解委员会调解，达不成协议的，任何一方也有权向人民法院起诉。您可以根据我们“我要诉讼”中提供的建议搜集相关证据材料，生成起诉状到法院进行立案。"
-law=dumps[{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"},{"title":"《中华人民共和国合同法》第三十六条","content":"男女一方要求离婚的，可由有关部门进行调解或直接向人民法院提出离婚诉讼。"}]
-cause=dumps["中华人民共和国合同法","男女一方要求离婚的","可由有关部门进行调解或直接向人民法院提出离婚诉"]
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riskassessment</t>
-  </si>
-  <si>
-    <t>legalFare=23
-mediateFare=45
-mediateTime=179
-trialTime=206
-诉讼=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalFare=23
-mediateFare=45
-mediateTime=179
-trialTime=206
-tiaojie=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>printpic</t>
-  </si>
-  <si>
-    <t>诉讼流程图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调解流程图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=1
-materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=2
-materials=（1）人民调解申请书；↵（2）人民调解申请人身份证明，如身份证、户口本等；↵（3）被申请调解人身份信息；↵（4）相关证据材料等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indictment</t>
-  </si>
-  <si>
-    <t>yg=dumps{"name":"1","sex":"19", "family":"工农区","address":"南京","phone":"15538905670"}
-ygdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
-bg=dumps{ "name":"1", "sex":"19", "family":"工农区", "address":"南京","phone":"15538905670"}
-bgdlr=dumps{ "name":"1", "sex":"男", "work":"开发工程师","lsphone":"15538905670"}
-zz=主张1；主张2
-ssly=事实跟理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZNYS_SSS_Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Law_Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lawcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DownloadLawComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmailLawComHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>awcomment=多次起诉离婚说明经劝说调解后双方已无和好的可能，夫妻感情确已破裂，法院判决离婚的可能性会大大增加。
-to_mail=1261589***qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DownloadIndictment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indictment=起诉状内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word=dumps{"apply_name":"周某","apply_sex":"男","apply_education":"研究生","apply_crowd":"律师","cause_action":"劳动争议纠纷","apply_race":"山西省","apply_card":"412822199511243073","apply_domicile_place":"南京","apply_address":"南京","apply_postal_code":"453500","apply_mobile":"15538905670","apply_workspace":"江宁区","agent_name":"徐远","agent_phone":"15538905670","agent_type":"法定代理人","description":"原告XX与被告原系夫妻关系，因感情破裂双方于XXXX年XX月XX日办理了离婚。离婚时，双方约定原告随XX生活，由被告每年承担抚养费XXXX元。然而，约定的数额已远远低于当前的生活水平，原告多次与被告协商要求其增加抚养费均被拒绝。","request_items":"劳动者请求支付违法解除劳动合同的经济赔偿金,请求被告承担诉讼费。费用：2000元人民币"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qid=9e4eb75afe1a113eb4e52d6408009548</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmailIndictmentHandler</t>
-  </si>
-  <si>
-    <t>Indictment=起诉状内容
-to_mail=1261589***qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_id=c54d0a22c584c35ca08185719a5ae4f3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>similarCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case6</t>
-  </si>
-  <si>
-    <t>case7</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=14</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=9</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=3</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=1</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=50</t>
+    <t>cause_id=5c107a2bba92931ebca385f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=5c175f52ba929379dd40fe81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_id=8d93745cb91d837450fde6c08eb99906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
-qId=342a184d07e511f15f22ab348bad1bbf</t>
+qId=&lt;case3,Res,data.record_id&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A78C18-396A-4549-9DE4-BBE6E3B1A0BC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,14 +740,14 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
     <col min="6" max="6" width="84.125" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -762,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -773,76 +770,70 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -856,21 +847,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95C7836-693C-4C74-94CF-F78DA0668BAA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="88" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -879,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -890,99 +881,96 @@
     </row>
     <row r="2" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -996,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E72A5E-3F46-4B05-9304-A462A4F84088}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1016,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1027,74 +1015,74 @@
     </row>
     <row r="2" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1096,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1139,103 +1127,103 @@
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1249,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1295,84 +1283,78 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405DC4C-E335-4D15-9AF6-B0D2E216134F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A9FF7-007F-4C18-8BFA-3D72EF90C160}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34335" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A78C18-396A-4549-9DE4-BBE6E3B1A0BC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,9 +778,6 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
         <v>79</v>
       </c>
@@ -795,14 +792,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -812,9 +806,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A9FF7-007F-4C18-8BFA-3D72EF90C160}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE75B04-174A-48D0-ABE6-CB3181DD5178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34335" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35970" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,11 +335,6 @@
     <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
 qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=1</t>
-  </si>
-  <si>
-    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
-qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=50</t>
   </si>
   <si>
     <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
@@ -402,6 +397,45 @@
     <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
 qId=&lt;case3,Res,data.record_id&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case8</t>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid=&lt;case3,Res,data.record_id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=&lt;case3,Res,data.record_id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;case4,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=c20a74ea86a97efeecc6431295538414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectclaim</t>
   </si>
 </sst>
 </file>
@@ -731,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A78C18-396A-4549-9DE4-BBE6E3B1A0BC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -793,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -825,7 +859,7 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
@@ -901,7 +935,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,7 +946,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -1085,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4112208-4C53-4CE3-8330-A4442E490476}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1204,18 +1238,30 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1298,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
@@ -1321,18 +1367,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1340,13 +1388,54 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE75B04-174A-48D0-ABE6-CB3181DD5178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F18DF-C621-45E9-BA3A-F06489DF333C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42510" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="znys" sheetId="6" r:id="rId1"/>
     <sheet name="android" sheetId="3" r:id="rId2"/>
     <sheet name="docdispose" sheetId="4" r:id="rId3"/>
     <sheet name="api" sheetId="7" r:id="rId4"/>
-    <sheet name="flow" sheetId="2" r:id="rId5"/>
+    <sheet name="work_first_flow" sheetId="2" r:id="rId5"/>
+    <sheet name="template_flow_2" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="134">
   <si>
     <t>Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,12 +438,1256 @@
   <si>
     <t>selectclaim</t>
   </si>
+  <si>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <t>case11</t>
+  </si>
+  <si>
+    <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=%subject_id%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case12</t>
+  </si>
+  <si>
+    <t>机动车交通事故责任纠纷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause_id=5c13548aba929311d0fbfc4d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>subject_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机动车交通事故责任纠纷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+subject_id=&lt;case1,Res,data.id[list_dict/zh_name@%subject_name%]&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机动车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.temp_choice_tags.id[dict_list_dict/zh_name@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case13</t>
+  </si>
+  <si>
+    <t>case14</t>
+  </si>
+  <si>
+    <t>case15</t>
+  </si>
+  <si>
+    <t>case16</t>
+  </si>
+  <si>
+    <t>case17</t>
+  </si>
+  <si>
+    <t>case18</t>
+  </si>
+  <si>
+    <t>case19</t>
+  </si>
+  <si>
+    <r>
+      <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.cases.id[dict_list0_dict]&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机动车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您无责任，对方负全部责任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营运车辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>租赁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车辆损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买了保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交强险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag1_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第三者商业责任险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag1_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%]&gt;
+tags=dumps["%tag0%","%tag1%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tag0_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>致人死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tag0=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.temp_choice_tags.id[dict_list0_list_dict/colloquial@%tag0_name%]&gt;
+tags=dumps["%tag0%"]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case20</t>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cause_id=&lt;case1,Input,cause_id&gt;
+subject_id=&lt;case2,Input,subject_id&gt;
+answers=[]
+qid=&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Res,data.questions.id[dict_list0_dict]&gt;
+record_id=&lt;case3,Res,data.record_id&gt;
+tags=%tags%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +1700,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -478,11 +1738,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1275,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7BBD-E17F-42C1-B8B0-6F9EA2CEADFA}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1443,4 +2704,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428B9891-70C1-4D4D-90B2-794F4FFCD078}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="86.875" customWidth="1"/>
+    <col min="7" max="7" width="84.125" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>